--- a/заказы/статистика филиалы/2023/09,23/29,09,23 ЗПФ/дв 29,09,23 лгрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/09,23/29,09,23 ЗПФ/дв 29,09,23 лгрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\29,09,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\09,23\29,09,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC565F-7826-44BD-A43D-04AA26C7B8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9CA6EB-A878-4F7F-A847-A58A753B42FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -2519,6 +2520,369 @@
           </cell>
           <cell r="V46">
             <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TDSheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Период: 29.09.2023 - 06.10.2023</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Готовые чебупели острые с мясом Горячая штучка 0,3 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Готовые чебупели с ветчиной и сыром Горячая штучка 0,3кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Готовые чебуреки с мясом ТМ Горячая штучка 0,09 кг флоу-пак ПОКОМ</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Готовые чебуреки Сочный мегачебурек.Готовые жареные.ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Жар-ладушки с клубникой и вишней. Жареные с начинкой.ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Жар-ладушки с яблоком и грушей. Изделия хлебобулочные жареные с начинкой зам  ПОКОМ</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Круггетсы с сырным соусом ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Наггетсы из печи 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки замор.  ПОКОМ</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Пельмени Бигбули со слив.маслом 0,9 кг   Поком</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Пельмени Бугбули со сливочным маслом ТМ Горячая штучка БУЛЬМЕНИ 0,43 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Пельмени отборные  с говядиной и свининой 0,43кг  Поком</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Пельмени отборные с говядиной 0,43кг Поком</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Пельмени Отборные с говядиной 0,9 кг НОВА ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Пельмени Сочные стародв. сфера 0,43кг  Поком</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Пельмени Сочные сфера 0,9 кг ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Чебупай сочное яблоко ТМ Горячая штучка ТС Чебупай 0,2 кг УВС.  зам  ПОКОМ</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Чебупай спелая вишня ТМ Горячая штучка ТС Чебупай 0,2 кг УВС. зам  ПОКОМ</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Чебуреки Мясные вес 2,7 кг Кулинарные изделия мясосодержащие рубленые в тесте жарен  ПОКОМ</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Чебуречище горячая штучка 0,14кг Поком</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>БОНУС_Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>шт</v>
           </cell>
         </row>
       </sheetData>
@@ -2852,11 +3216,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V47" sqref="V47"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2879,15 +3243,15 @@
     <col min="23" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2950,7 +3314,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2987,7 +3351,7 @@
       <c r="V4" s="12"/>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -3056,7 +3420,7 @@
         <v>1199.3399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -3124,8 +3488,12 @@
         <f>V6*U6*G6</f>
         <v>3.5999999999999996</v>
       </c>
+      <c r="Y6" s="2" t="str">
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -3193,8 +3561,12 @@
         <f t="shared" ref="W7:W46" si="7">V7*U7*G7</f>
         <v>57.599999999999994</v>
       </c>
+      <c r="Y7" s="2" t="str">
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -3261,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -3329,8 +3701,12 @@
         <f t="shared" si="7"/>
         <v>75.599999999999994</v>
       </c>
+      <c r="Y9" s="2" t="str">
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -3395,8 +3771,12 @@
         <f t="shared" si="7"/>
         <v>10.799999999999999</v>
       </c>
+      <c r="Y10" s="2" t="str">
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -3455,15 +3835,19 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="V11" s="16">
-        <f t="shared" ref="V7:V46" si="8">M11/U11</f>
+        <f t="shared" ref="V11:V44" si="8">M11/U11</f>
         <v>0</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y11" s="2" t="str">
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3529,8 +3913,12 @@
         <f t="shared" si="7"/>
         <v>48.1</v>
       </c>
+      <c r="Y12" s="2" t="str">
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -3598,8 +3986,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y13" s="2" t="str">
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -3667,8 +4059,12 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="Y14" s="2" t="str">
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -3738,8 +4134,12 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="Y15" s="2" t="str">
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -3805,8 +4205,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y16" s="2" t="str">
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -3875,8 +4279,12 @@
         <f t="shared" si="7"/>
         <v>51.800000000000004</v>
       </c>
+      <c r="Y17" s="2" t="str">
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -3943,8 +4351,12 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="Y18" s="2" t="str">
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -4011,8 +4423,12 @@
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
+      <c r="Y19" s="2" t="str">
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -4080,8 +4496,12 @@
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
+      <c r="Y20" s="2" t="str">
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -4147,8 +4567,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y21" s="2" t="str">
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
@@ -4209,8 +4633,12 @@
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
+      <c r="Y22" s="2" t="str">
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -4279,8 +4707,12 @@
         <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
+      <c r="Y23" s="2" t="str">
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -4348,8 +4780,12 @@
         <f t="shared" si="7"/>
         <v>41.28</v>
       </c>
+      <c r="Y24" s="2" t="str">
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -4415,8 +4851,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y25" s="2" t="str">
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -4484,8 +4924,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y26" s="2" t="str">
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
@@ -4550,8 +4994,12 @@
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
+      <c r="Y27" s="2" t="str">
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -4621,8 +5069,12 @@
         <f t="shared" si="7"/>
         <v>108</v>
       </c>
+      <c r="Y28" s="2" t="str">
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -4690,8 +5142,12 @@
         <f t="shared" si="7"/>
         <v>20.64</v>
       </c>
+      <c r="Y29" s="2" t="str">
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
@@ -4756,8 +5212,12 @@
         <f t="shared" si="7"/>
         <v>44.8</v>
       </c>
+      <c r="Y30" s="2" t="str">
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -4823,8 +5283,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y31" s="2" t="str">
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -4890,8 +5354,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y32" s="2" t="str">
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -4957,8 +5425,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y33" s="2" t="str">
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
@@ -5023,8 +5495,12 @@
         <f t="shared" si="7"/>
         <v>21.6</v>
       </c>
+      <c r="Y34" s="2" t="str">
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
@@ -5090,8 +5566,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y35" s="2" t="str">
+        <f>VLOOKUP(A35,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>39</v>
       </c>
@@ -5157,8 +5637,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y36" s="2" t="str">
+        <f>VLOOKUP(A36,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
@@ -5224,8 +5708,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y37" s="2" t="str">
+        <f>VLOOKUP(A37,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>41</v>
       </c>
@@ -5291,8 +5779,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y38" s="2" t="str">
+        <f>VLOOKUP(A38,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
@@ -5360,8 +5852,12 @@
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
+      <c r="Y39" s="2" t="str">
+        <f>VLOOKUP(A39,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>43</v>
       </c>
@@ -5427,8 +5923,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y40" s="2" t="str">
+        <f>VLOOKUP(A40,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
@@ -5496,8 +5996,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y41" s="2" t="str">
+        <f>VLOOKUP(A41,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>45</v>
       </c>
@@ -5564,8 +6068,12 @@
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
+      <c r="Y42" s="2" t="str">
+        <f>VLOOKUP(A42,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>46</v>
       </c>
@@ -5632,8 +6140,12 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
+      <c r="Y43" s="2" t="str">
+        <f>VLOOKUP(A43,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>47</v>
       </c>
@@ -5699,8 +6211,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="Y44" s="2" t="str">
+        <f>VLOOKUP(A44,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="45" spans="1:23" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -5768,8 +6284,12 @@
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
+      <c r="Y45" s="2" t="str">
+        <f>VLOOKUP(A45,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="46" spans="1:23" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>65</v>
       </c>
@@ -5830,6 +6350,10 @@
         <f t="shared" si="7"/>
         <v>27.720000000000002</v>
       </c>
+      <c r="Y46" s="2" t="str">
+        <f>VLOOKUP(A46,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
